--- a/public/Data.xlsx
+++ b/public/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C553E3D-BA44-4395-8140-6B7A2D30C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24DF39B-0EAD-4213-899C-404A6E851FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,38 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Nama</t>
   </si>
   <si>
-    <t xml:space="preserve">reputasi perusahaan </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fasilitas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">program magang </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kondisi lingkungan</t>
-  </si>
-  <si>
-    <t>lokasi</t>
-  </si>
-  <si>
     <t>fasilitas</t>
   </si>
   <si>
-    <t>program magang</t>
-  </si>
-  <si>
-    <t>reputasi</t>
-  </si>
-  <si>
-    <t>lingkungan kerja</t>
-  </si>
-  <si>
     <t>PT United Tractors Tbk Banjarmasin</t>
   </si>
   <si>
@@ -90,6 +66,33 @@
   </si>
   <si>
     <t>PT. Rezki Batulicin Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fasilitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Magang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reputasi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lingkungan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingkungan </t>
+  </si>
+  <si>
+    <t>Reputasi</t>
+  </si>
+  <si>
+    <t>Program Magang</t>
+  </si>
+  <si>
+    <t>Fasilitas</t>
+  </si>
+  <si>
+    <t>Lingkungan</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nama" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jarak (KM)" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" fasilitas " dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="program magang " dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="reputasi perusahaan " dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name=" kondisi lingkungan" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Fasilitas" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Program Magang " dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reputasi  " dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name=" Lingkungan " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -820,7 +823,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -839,25 +842,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8">
         <v>61</v>
@@ -877,10 +880,10 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9">
         <v>3</v>
@@ -897,7 +900,7 @@
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8">
         <v>64</v>
@@ -917,7 +920,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
@@ -937,7 +940,7 @@
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>209</v>
@@ -957,7 +960,7 @@
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -977,7 +980,7 @@
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8">
         <v>145</v>
@@ -997,7 +1000,7 @@
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9">
         <v>49</v>
@@ -1017,7 +1020,7 @@
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -1037,7 +1040,7 @@
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9">
         <v>54</v>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>10</v>
@@ -1090,33 +1093,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075AEC4-B8A7-4990-8333-4CF19FFDDF2B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView zoomScale="156" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1136,7 +1137,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>0.33300000000000002</v>
@@ -1156,7 +1157,7 @@
     </row>
     <row r="4" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>0.33300000000000002</v>
@@ -1176,7 +1177,7 @@
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>0.2</v>
@@ -1196,7 +1197,7 @@
     </row>
     <row r="6" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>0.2</v>
